--- a/Teorema de Bayes.xlsx
+++ b/Teorema de Bayes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\12° SEMESTRE\TCC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AB995B-C06D-4B01-8BB2-6B6CCD3B4C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16084686-14AB-4D4C-8FB3-8C53C0DEB3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="1095" windowWidth="15375" windowHeight="7875" xr2:uid="{9CC97D1B-19CB-415A-AD5B-2B3A84183013}"/>
+    <workbookView xWindow="-2175" yWindow="480" windowWidth="21600" windowHeight="11385" xr2:uid="{9CC97D1B-19CB-415A-AD5B-2B3A84183013}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>P(X | HeartDisease=1)</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Diabetic = Yes</t>
+  </si>
+  <si>
+    <t>&lt;0.00001</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>Diferença</t>
   </si>
 </sst>
 </file>
@@ -95,9 +104,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +114,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,13 +151,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,116 +499,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137DC50D-E13E-41A4-BF0C-194C85D20808}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.754</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="D2" s="6">
+        <f>B2-C2</f>
+        <v>0.38000000000000006</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.114</v>
+      </c>
+      <c r="D3" s="6">
+        <f>B3-C3</f>
+        <v>0.245</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D4" s="6">
+        <f>B4-C4</f>
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="D5" s="6">
+        <f>B5-C5</f>
+        <v>0.21700000000000003</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B6" s="1">
         <v>0.58499999999999996</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C6" s="1">
         <v>0.39500000000000002</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" s="6">
+        <f>B6-C6</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <f>B7-C7</f>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B8" s="1">
         <v>0.157</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C8" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.109</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.114</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="6">
+        <f>B8-C8</f>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
@@ -561,129 +663,199 @@
       <c r="C9" s="1">
         <v>0.46500000000000002</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="6">
+        <f>B9-C9</f>
+        <v>0.12599999999999995</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <f>B10-C10</f>
+        <v>9.799999999999999E-2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.124</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <f>B11-C11</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.754</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="D12" s="6">
+        <f>B12-C12</f>
+        <v>8.2999999999999963E-2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D13" s="6">
+        <f>B13-C13</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="D14" s="6">
+        <f>B14-C14</f>
+        <v>4.6999999999999986E-2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <f>B15-C15</f>
+        <v>0.03</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <f>B16-C16</f>
+        <v>-2.9000000000000005E-2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="D17" s="6">
+        <f>B17-C17</f>
+        <v>-4.9999999999999933E-2</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B18" s="6">
         <v>0.40899999999999997</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C18" s="6">
         <v>0.53500000000000003</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.108</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D18" s="6">
+        <f>B18-C18</f>
+        <v>-0.12600000000000006</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B19" s="6">
         <v>0.64300000000000002</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C19" s="6">
         <v>0.79</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.129</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.124</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.183</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="6">
+        <f>B19-C19</f>
+        <v>-0.14700000000000002</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+    <sortCondition descending="1" ref="D1:D19"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
